--- a/Salle/Twitter/Intermedias/data_heatmap.xlsx
+++ b/Salle/Twitter/Intermedias/data_heatmap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Anio</t>
   </si>
@@ -146,37 +146,67 @@
     <t xml:space="preserve">climáticos</t>
   </si>
   <si>
-    <t xml:space="preserve">corrupción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema Judicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corruptos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justicia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiscales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrupto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constitución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abogado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coimero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiscalía</t>
+    <t xml:space="preserve">homosexuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexualizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feministas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feminista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feminismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexualización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feminista-comunista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libertad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vazquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabaré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vázquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalista.este</t>
   </si>
 </sst>
 </file>
@@ -2924,7 +2954,7 @@
         <v>44</v>
       </c>
       <c r="C173" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D173" t="s">
         <v>45</v>
@@ -2938,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="C174" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
         <v>45</v>
@@ -2946,13 +2976,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
         <v>47</v>
       </c>
       <c r="C175" t="n">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="D175" t="s">
         <v>45</v>
@@ -2960,13 +2990,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C176" t="n">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
         <v>45</v>
@@ -2974,13 +3004,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C177" t="n">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
         <v>45</v>
@@ -2988,13 +3018,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C178" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
         <v>45</v>
@@ -3002,13 +3032,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C179" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D179" t="s">
         <v>45</v>
@@ -3016,13 +3046,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C180" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D180" t="s">
         <v>45</v>
@@ -3030,13 +3060,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
         <v>45</v>
@@ -3044,13 +3074,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C182" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
         <v>45</v>
@@ -3058,13 +3088,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C183" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
         <v>45</v>
@@ -3072,13 +3102,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s">
         <v>47</v>
       </c>
       <c r="C184" t="n">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
         <v>45</v>
@@ -3086,13 +3116,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C185" t="n">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
         <v>45</v>
@@ -3100,13 +3130,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C186" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
         <v>45</v>
@@ -3114,13 +3144,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C187" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D187" t="s">
         <v>45</v>
@@ -3128,13 +3158,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C188" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
         <v>45</v>
@@ -3142,13 +3172,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B189" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C189" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
         <v>45</v>
@@ -3156,13 +3186,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
         <v>45</v>
@@ -3170,13 +3200,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B191" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C191" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
         <v>45</v>
@@ -3184,13 +3214,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C192" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D192" t="s">
         <v>45</v>
@@ -3198,13 +3228,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B193" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C193" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
         <v>45</v>
@@ -3212,13 +3242,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B194" t="s">
         <v>47</v>
       </c>
       <c r="C194" t="n">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
         <v>45</v>
@@ -3226,13 +3256,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C195" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D195" t="s">
         <v>45</v>
@@ -3240,13 +3270,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C196" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D196" t="s">
         <v>45</v>
@@ -3254,13 +3284,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B197" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C197" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D197" t="s">
         <v>45</v>
@@ -3268,13 +3298,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B198" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C198" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
         <v>45</v>
@@ -3282,13 +3312,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C199" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
         <v>45</v>
@@ -3296,13 +3326,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C200" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
         <v>45</v>
@@ -3310,13 +3340,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C201" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
         <v>45</v>
@@ -3324,13 +3354,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B202" t="s">
         <v>44</v>
       </c>
       <c r="C202" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
         <v>45</v>
@@ -3338,13 +3368,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C203" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D203" t="s">
         <v>45</v>
@@ -3352,13 +3382,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C204" t="n">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="D204" t="s">
         <v>45</v>
@@ -3366,13 +3396,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B205" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C205" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D205" t="s">
         <v>45</v>
@@ -3380,13 +3410,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B206" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C206" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D206" t="s">
         <v>45</v>
@@ -3394,13 +3424,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B207" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C207" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D207" t="s">
         <v>45</v>
@@ -3408,13 +3438,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C208" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D208" t="s">
         <v>45</v>
@@ -3422,13 +3452,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C209" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D209" t="s">
         <v>45</v>
@@ -3436,870 +3466,1052 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C210" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C211" t="n">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" t="n">
         <v>17</v>
       </c>
-      <c r="B212" t="s">
-        <v>44</v>
-      </c>
-      <c r="C212" t="n">
-        <v>108</v>
-      </c>
       <c r="D212" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C213" t="n">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C214" t="n">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C215" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C216" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C217" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C218" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C219" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C220" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C221" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C222" t="n">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="D222" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C223" t="n">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="D223" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C224" t="n">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C225" t="n">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C226" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C227" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D227" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C228" t="n">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C229" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D229" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C230" t="n">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C231" t="n">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C232" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C233" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B234" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C234" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D234" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C235" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C236" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D236" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C237" t="n">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="D237" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C238" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C239" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C240" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B241" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C241" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B242" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C242" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D242" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B243" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C243" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B244" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C244" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D244" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B245" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C245" t="n">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="D245" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C246" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C247" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C248" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B249" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C249" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D249" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B250" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C250" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B251" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C251" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D251" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B252" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C252" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B253" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C253" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D253" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B254" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C254" t="n">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D254" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B255" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C255" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B256" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C256" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B257" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B258" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C258" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C259" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D259" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B260" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C260" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B261" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C261" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D261" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B262" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C262" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C263" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D263" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B264" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C264" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B265" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C265" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D265" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B266" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D266" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B267" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C267" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B268" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C268" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D268" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C269" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D269" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B270" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C270" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C271" t="n">
         <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" t="s">
+        <v>55</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" t="s">
+        <v>57</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" t="s">
+        <v>58</v>
+      </c>
+      <c r="C274" t="n">
+        <v>75</v>
+      </c>
+      <c r="D274" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" t="s">
+        <v>59</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" t="s">
+        <v>60</v>
+      </c>
+      <c r="C276" t="n">
+        <v>66</v>
+      </c>
+      <c r="D276" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" t="s">
+        <v>61</v>
+      </c>
+      <c r="C277" t="n">
+        <v>98</v>
+      </c>
+      <c r="D277" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" t="s">
+        <v>62</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" t="s">
+        <v>57</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" t="s">
+        <v>58</v>
+      </c>
+      <c r="C281" t="n">
+        <v>22</v>
+      </c>
+      <c r="D281" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" t="s">
+        <v>59</v>
+      </c>
+      <c r="C282" t="n">
+        <v>4</v>
+      </c>
+      <c r="D282" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" t="s">
+        <v>60</v>
+      </c>
+      <c r="C283" t="n">
+        <v>17</v>
+      </c>
+      <c r="D283" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" t="s">
+        <v>61</v>
+      </c>
+      <c r="C284" t="n">
+        <v>17</v>
+      </c>
+      <c r="D284" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
